--- a/src/test/xlsTestFiles/test-events.xlsx
+++ b/src/test/xlsTestFiles/test-events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/Desktop/coding/xlsUploader/src/test/xlsTestFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D610298-38A7-D943-8A61-E7E8DE2BB69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8FFE66-8740-184A-9108-71A0ED8AAD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{B474F3A5-C3F8-2345-A3DB-673EF3609AE0}"/>
   </bookViews>
